--- a/docs/Lijst attributen.xlsx
+++ b/docs/Lijst attributen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbiholding-my.sharepoint.com/personal/nilan_bais_croonwolterendros_nl/Documents/Documenten/GitHub/storingsanalyse-generator/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{F9E702E7-883B-419E-BA90-FF7DB7718E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C79AFBA8-21D9-4818-B9D8-BD871CB12CAB}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{F9E702E7-883B-419E-BA90-FF7DB7718E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34E8B66E-F0D7-4191-808C-5CD327028037}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C43033E8-5744-4181-8053-1C082F925541}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43033E8-5744-4181-8053-1C082F925541}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>Overzicht attributen dataset storingsanalyse</t>
   </si>
@@ -50,9 +50,6 @@
     <t>werkorder beschrijving</t>
   </si>
   <si>
-    <t>activum</t>
-  </si>
-  <si>
     <t>asset beschrijving</t>
   </si>
   <si>
@@ -143,18 +140,9 @@
     <t>Gmblocation3</t>
   </si>
   <si>
-    <t>MTL</t>
-  </si>
-  <si>
-    <t>Voor specifiek project</t>
-  </si>
-  <si>
     <t>&lt;--- deze moet toegevoegd worden in het te genereren tussen document met de dropdown opties die de ME handmatig door moeten werken.</t>
   </si>
   <si>
-    <t>L2T</t>
-  </si>
-  <si>
     <t>LBS</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>location.description</t>
   </si>
   <si>
-    <t>asset.siteid</t>
-  </si>
-  <si>
     <t>GMBCTSCHCODERING33</t>
   </si>
   <si>
@@ -263,10 +248,43 @@
     <t>gmblocation2</t>
   </si>
   <si>
-    <t>asset.gmbdescription</t>
-  </si>
-  <si>
     <t>GMBCTSCHCODERING36</t>
+  </si>
+  <si>
+    <t>siteid</t>
+  </si>
+  <si>
+    <t>asset 2 beschrijving</t>
+  </si>
+  <si>
+    <t>asset.assetnum2</t>
+  </si>
+  <si>
+    <t>sbs2 omschrijving</t>
+  </si>
+  <si>
+    <t>locatie2</t>
+  </si>
+  <si>
+    <t>locatie2 omschrijving</t>
+  </si>
+  <si>
+    <t>asset num</t>
+  </si>
+  <si>
+    <t>asset.location2</t>
+  </si>
+  <si>
+    <t>toevoegen/checken [t/c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset num 2 </t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -617,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE70A5F-9D2E-4AFB-B12F-226826578DCF}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -628,7 +646,7 @@
     <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +682,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,310 +696,335 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" t="s">
-        <v>38</v>
+      <c r="C35" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
